--- a/data/PhytoBiomass.xlsx
+++ b/data/PhytoBiomass.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srvpr\Documents\GitHub\bsrvp.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{514C0243-D2F2-451C-9ED9-403294A42A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5B6063-2610-4606-8EC6-8C8415D9E0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Days</t>
   </si>
@@ -43,16 +43,13 @@
     <t>Chlorophyceans</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Biomass </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,12 +431,11 @@
     <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,11 +448,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,14 +460,11 @@
         <v>2.275454E-2</v>
       </c>
       <c r="D2">
-        <v>3.65521911</v>
-      </c>
-      <c r="E2">
         <v>3.84</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>47</v>
       </c>
@@ -485,14 +475,11 @@
         <v>0.11581042</v>
       </c>
       <c r="D3">
-        <v>4.0144311400000001</v>
-      </c>
-      <c r="E3">
         <v>4.46</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>78</v>
       </c>
@@ -503,14 +490,11 @@
         <v>0.11982862</v>
       </c>
       <c r="D4">
-        <v>2.8668555009999999</v>
-      </c>
-      <c r="E4">
         <v>3.29</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>116</v>
       </c>
@@ -521,14 +505,11 @@
         <v>1.0821348099999999</v>
       </c>
       <c r="D5">
-        <v>1.679882079</v>
-      </c>
-      <c r="E5">
         <v>2.92</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>143</v>
       </c>
@@ -539,14 +520,11 @@
         <v>0.1375461</v>
       </c>
       <c r="D6">
-        <v>2.433775604</v>
-      </c>
-      <c r="E6">
         <v>2.72</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>181</v>
       </c>
@@ -557,14 +535,11 @@
         <v>0.48321974000000001</v>
       </c>
       <c r="D7">
-        <v>1.9744630500000002</v>
-      </c>
-      <c r="E7">
         <v>2.99</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210</v>
       </c>
@@ -575,14 +550,11 @@
         <v>1.15923369</v>
       </c>
       <c r="D8">
-        <v>2.995394976</v>
-      </c>
-      <c r="E8">
         <v>7.23</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>236</v>
       </c>
@@ -593,14 +565,11 @@
         <v>0.19452164</v>
       </c>
       <c r="D9">
-        <v>4.5311167699999997</v>
-      </c>
-      <c r="E9">
         <v>40.159999999999997</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>270</v>
       </c>
@@ -611,14 +580,11 @@
         <v>7.8112600000000004E-3</v>
       </c>
       <c r="D10">
-        <v>5.1550658079999998</v>
-      </c>
-      <c r="E10">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>298</v>
       </c>
@@ -629,14 +595,11 @@
         <v>1.9358340000000002E-2</v>
       </c>
       <c r="D11">
-        <v>2.1154184860000003</v>
-      </c>
-      <c r="E11">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>332</v>
       </c>
@@ -647,14 +610,11 @@
         <v>0.37560764000000002</v>
       </c>
       <c r="D12">
-        <v>7.3885023750000007</v>
-      </c>
-      <c r="E12">
         <v>8.23</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>364</v>
       </c>
@@ -665,57 +625,54 @@
         <v>4.5490000000000003E-2</v>
       </c>
       <c r="D13">
-        <v>9.145939255</v>
-      </c>
-      <c r="E13">
         <v>9.82</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -735,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/PhytoBiomass.xlsx
+++ b/data/PhytoBiomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srvpr\Documents\GitHub\bsrvp.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757691f4f86b2132/Documents/GitHub/bsrvp.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5B6063-2610-4606-8EC6-8C8415D9E0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DA5B6063-2610-4606-8EC6-8C8415D9E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B192C144-70A6-4A38-839E-DC6674728201}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>Cyanophyceans</t>
   </si>
   <si>
-    <t>Chlorophyceans</t>
+    <t xml:space="preserve">Total Biomass </t>
   </si>
   <si>
-    <t xml:space="preserve">Total Biomass </t>
+    <t>Chlorophyceae</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -454,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.157181285</v>
+        <v>0.55403491091293766</v>
       </c>
       <c r="C2">
-        <v>2.275454E-2</v>
+        <v>0.34095493337188387</v>
       </c>
       <c r="D2">
-        <v>3.84</v>
+        <v>4.7758235324488849</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -469,13 +469,13 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.30193242399999998</v>
+        <v>0.40912590817625394</v>
       </c>
       <c r="C3">
-        <v>0.11581042</v>
+        <v>0.44674855457315676</v>
       </c>
       <c r="D3">
-        <v>4.46</v>
+        <v>4.5364616722501303</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -484,13 +484,13 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.29936868100000003</v>
+        <v>0.60658077572914004</v>
       </c>
       <c r="C4">
-        <v>0.11982862</v>
+        <v>0.21089627647708548</v>
       </c>
       <c r="D4">
-        <v>3.29</v>
+        <v>4.1313762685669939</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -499,13 +499,13 @@
         <v>116</v>
       </c>
       <c r="B5">
-        <v>0.162060917</v>
+        <v>0.30833408932167428</v>
       </c>
       <c r="C5">
-        <v>1.0821348099999999</v>
+        <v>1.3015250644579746</v>
       </c>
       <c r="D5">
-        <v>2.92</v>
+        <v>3.5976253705320951</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -514,13 +514,13 @@
         <v>143</v>
       </c>
       <c r="B6">
-        <v>0.14839221</v>
+        <v>0.82889990244151845</v>
       </c>
       <c r="C6">
-        <v>0.1375461</v>
+        <v>0.35296451358902703</v>
       </c>
       <c r="D6">
-        <v>2.72</v>
+        <v>2.8677163714881075</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -529,13 +529,13 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>0.53055508699999998</v>
+        <v>0.8222623072323747</v>
       </c>
       <c r="C7">
-        <v>0.48321974000000001</v>
+        <v>1.3274444860360091</v>
       </c>
       <c r="D7">
-        <v>2.99</v>
+        <v>3.1795474318390529</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -544,13 +544,13 @@
         <v>210</v>
       </c>
       <c r="B8">
-        <v>3.0757582800000001</v>
+        <v>3.3032625030337783</v>
       </c>
       <c r="C8">
-        <v>1.15923369</v>
+        <v>1.1683843936233742</v>
       </c>
       <c r="D8">
-        <v>7.23</v>
+        <v>7.8952370317476301</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -559,13 +559,13 @@
         <v>236</v>
       </c>
       <c r="B9">
-        <v>35.431753440000001</v>
+        <v>35.4626979566507</v>
       </c>
       <c r="C9">
-        <v>0.19452164</v>
+        <v>0.73980262962513565</v>
       </c>
       <c r="D9">
-        <v>40.159999999999997</v>
+        <v>40.195264578072084</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -574,13 +574,13 @@
         <v>270</v>
       </c>
       <c r="B10">
-        <v>3.3785454509999999</v>
+        <v>3.8821607610393229</v>
       </c>
       <c r="C10">
-        <v>7.8112600000000004E-3</v>
+        <v>0.53786912089962247</v>
       </c>
       <c r="D10">
-        <v>8.5399999999999991</v>
+        <v>9.0796127855773108</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -589,13 +589,13 @@
         <v>298</v>
       </c>
       <c r="B11">
-        <v>0.36371815400000002</v>
+        <v>0.57579499853768668</v>
       </c>
       <c r="C11">
-        <v>1.9358340000000002E-2</v>
+        <v>0.39992502566004173</v>
       </c>
       <c r="D11">
-        <v>2.5099999999999998</v>
+        <v>3.3515535419366866</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -604,13 +604,13 @@
         <v>332</v>
       </c>
       <c r="B12">
-        <v>0.43724161900000003</v>
+        <v>1.2761014980146668</v>
       </c>
       <c r="C12">
-        <v>0.37560764000000002</v>
+        <v>1.3228277478824038</v>
       </c>
       <c r="D12">
-        <v>8.23</v>
+        <v>9.0987843063616864</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -619,13 +619,13 @@
         <v>364</v>
       </c>
       <c r="B13">
-        <v>0.61266129999999996</v>
+        <v>1.1279143497455819</v>
       </c>
       <c r="C13">
-        <v>4.5490000000000003E-2</v>
+        <v>0.34451855883043958</v>
       </c>
       <c r="D13">
-        <v>9.82</v>
+        <v>10.457812853229784</v>
       </c>
       <c r="E13" s="1"/>
     </row>
